--- a/Logical-Analyzer-Captures/decode-sequencenumber-large/CompareResults-large.xlsx
+++ b/Logical-Analyzer-Captures/decode-sequencenumber-large/CompareResults-large.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CompareResults-Part2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="196">
   <si>
     <t>full-decode-01.csv</t>
   </si>
@@ -495,9 +495,6 @@
     <t>command (7 bits) + checksum (1 bit)</t>
   </si>
   <si>
-    <t>checksum</t>
-  </si>
-  <si>
     <t>Fixed value for the previous command: register = 77, unregister = 82, low/medium/full/timer = 85.</t>
   </si>
   <si>
@@ -580,6 +577,42 @@
   </si>
   <si>
     <t>leave</t>
+  </si>
+  <si>
+    <t>checksum (command specific)</t>
+  </si>
+  <si>
+    <t>footer</t>
+  </si>
+  <si>
+    <t>Start of the message (10101010 x 7)</t>
+  </si>
+  <si>
+    <t>171,254,0,179,42,171,42,149,154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counter 1 </t>
+  </si>
+  <si>
+    <t>counter 1 (2 bits) + command (6 bits)</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>command (4 bits) + counter 2 (4 bits)</t>
+  </si>
+  <si>
+    <t>counter 2</t>
+  </si>
+  <si>
+    <t>counter 2 (6 bits) + footer (2 bits)</t>
+  </si>
+  <si>
+    <t>footer (3 bits)</t>
+  </si>
+  <si>
+    <t>footer command specific: for join command (2, 165, 169, 169, 154, 86, 85, 5) for all other commands (2, 172, 170, 170, 170, 170, 170, 7)</t>
   </si>
 </sst>
 </file>
@@ -1853,76 +1886,76 @@
         <v>135</v>
       </c>
       <c r="DD1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DE1" t="s">
         <v>159</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DF1" t="s">
         <v>160</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DG1" t="s">
         <v>161</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DH1" t="s">
         <v>162</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DI1" t="s">
         <v>163</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DJ1" t="s">
         <v>164</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DK1" t="s">
         <v>165</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DL1" t="s">
         <v>166</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DM1" t="s">
         <v>167</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>168</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>169</v>
       </c>
-      <c r="DO1" t="s">
-        <v>170</v>
-      </c>
       <c r="DP1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DQ1" t="s">
         <v>171</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>172</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>173</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>174</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>175</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>176</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>177</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>178</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>179</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>180</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>181</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:131" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -21621,9 +21654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ES61"/>
   <sheetViews>
-    <sheetView topLeftCell="AR1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BA59" sqref="BA59"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21990,73 +22023,73 @@
         <v>135</v>
       </c>
       <c r="DW1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DX1" t="s">
         <v>159</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>160</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>161</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>162</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>163</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>164</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>165</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>166</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>167</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EG1" t="s">
         <v>168</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EH1" t="s">
         <v>169</v>
       </c>
-      <c r="EH1" t="s">
-        <v>170</v>
-      </c>
       <c r="EI1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EJ1" t="s">
         <v>171</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EK1" t="s">
         <v>172</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EL1" t="s">
         <v>173</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EM1" t="s">
         <v>174</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EN1" t="s">
         <v>175</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EO1" t="s">
         <v>176</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EP1" t="s">
         <v>177</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EQ1" t="s">
         <v>178</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="ER1" t="s">
         <v>179</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ES1" t="s">
         <v>180</v>
-      </c>
-      <c r="ES1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:149" x14ac:dyDescent="0.25">
@@ -56401,70 +56434,70 @@
         <v>135</v>
       </c>
       <c r="DS1" t="s">
+        <v>158</v>
+      </c>
+      <c r="DT1" t="s">
         <v>159</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>160</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>161</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>162</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>163</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>164</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>165</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>166</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" t="s">
         <v>167</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EC1" t="s">
         <v>168</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>169</v>
       </c>
-      <c r="ED1" t="s">
-        <v>170</v>
-      </c>
       <c r="EE1" t="s">
+        <v>170</v>
+      </c>
+      <c r="EF1" t="s">
         <v>171</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EG1" t="s">
         <v>172</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EH1" t="s">
         <v>173</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EI1" t="s">
         <v>174</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EJ1" t="s">
         <v>175</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EK1" t="s">
         <v>176</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EL1" t="s">
         <v>177</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EM1" t="s">
         <v>178</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EN1" t="s">
         <v>179</v>
-      </c>
-      <c r="EN1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:144" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -75617,7 +75650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -75637,10 +75670,10 @@
         <v>139</v>
       </c>
       <c r="F1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
         <v>183</v>
-      </c>
-      <c r="G1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -75705,13 +75738,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G7" s="34"/>
     </row>
@@ -76731,10 +76764,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -76814,7 +76847,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -76842,7 +76875,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -76855,6 +76888,9 @@
       <c r="C11">
         <v>170</v>
       </c>
+      <c r="D11" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -76866,6 +76902,9 @@
       <c r="C12">
         <v>171</v>
       </c>
+      <c r="D12" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -76875,7 +76914,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -76886,15 +76925,157 @@
         <v>20</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>170</v>
+      </c>
+      <c r="D20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>43</v>
+      </c>
+      <c r="B27">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>